--- a/health_insurance_features_definitions.xlsx
+++ b/health_insurance_features_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHB\Desktop\my_quick_acess\3.Projects\projects pipeline\2025\3. Health Insurance Recommender system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D8C10-3469-4876-AF64-043C27B5DF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339CB1C-2B4B-475E-90B2-150CE8518E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature defination" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Feature</t>
   </si>
@@ -43,9 +43,6 @@
     <t>monthly_income</t>
   </si>
   <si>
-    <t>health_condition</t>
-  </si>
-  <si>
     <t>plan_cost</t>
   </si>
   <si>
@@ -91,86 +88,243 @@
     <t>claim_reimbursement_speed</t>
   </si>
   <si>
-    <t>insurance_effective_time</t>
-  </si>
-  <si>
-    <t>target_plan</t>
-  </si>
-  <si>
-    <t>Unique identifier for each user</t>
-  </si>
-  <si>
-    <t>Age of the user</t>
-  </si>
-  <si>
-    <t>Gender of the user (Male, Female, Other)</t>
-  </si>
-  <si>
-    <t>Country of residence</t>
-  </si>
-  <si>
-    <t>User's monthly income in USD</t>
-  </si>
-  <si>
-    <t>Primary health condition of the user (e.g., Diabetes, Hypertension, Asthma)</t>
-  </si>
-  <si>
-    <t>Monthly cost of the insurance plan in USD</t>
-  </si>
-  <si>
-    <t>Amount user pays before insurance covers expenses</t>
-  </si>
-  <si>
-    <t>Maximum amount user pays per year before full coverage</t>
-  </si>
-  <si>
-    <t>Number of dependents in the family</t>
-  </si>
-  <si>
-    <t>User's marital status (Single, Married, Divorced, Widowed)</t>
-  </si>
-  <si>
-    <t>User's employment type (Salaried, Self-employed, Unemployed)</t>
-  </si>
-  <si>
-    <t>Highest level of education attained by the user</t>
-  </si>
-  <si>
-    <t>Number of hospital visits in the past year</t>
-  </si>
-  <si>
-    <t>Whether the user smokes (Yes, No)</t>
-  </si>
-  <si>
-    <t>Whether the user consumes alcohol (Yes, No)</t>
-  </si>
-  <si>
-    <t>Whether the user is on long-term medication (Yes, No)</t>
-  </si>
-  <si>
-    <t>Whether the user has a disability (Yes, No)</t>
-  </si>
-  <si>
-    <t>User's preference for co-payment level (Low, Medium, High)</t>
-  </si>
-  <si>
-    <t>Maximum lifetime coverage amount in USD</t>
-  </si>
-  <si>
-    <t>Speed of claim reimbursement (Fast, Medium, Slow)</t>
-  </si>
-  <si>
-    <t>Time taken for the insurance plan to start being effective (in days)</t>
-  </si>
-  <si>
-    <t>Recommended insurance plan based on user profile</t>
+    <t>Unique identifier assigned to each user.</t>
+  </si>
+  <si>
+    <t>The age of the user in years.</t>
+  </si>
+  <si>
+    <t>The gender of the user (e.g., Male, Female, Other).</t>
+  </si>
+  <si>
+    <t>The country where the user resides.</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>The specific region within the country.</t>
+  </si>
+  <si>
+    <t>employment_status</t>
+  </si>
+  <si>
+    <t>Whether the user is employed, unemployed, or retired.</t>
+  </si>
+  <si>
+    <t>The user’s monthly earnings in currency.</t>
+  </si>
+  <si>
+    <t>The highest level of education attained by the user.</t>
+  </si>
+  <si>
+    <t>The user's marital status (e.g., Single, Married, Divorced).</t>
+  </si>
+  <si>
+    <t>The number of people in the user’s household.</t>
+  </si>
+  <si>
+    <t>The nature of employment (e.g., Full-time, Part-time, Self-employed).</t>
+  </si>
+  <si>
+    <t>pre_existing_conditions</t>
+  </si>
+  <si>
+    <t>Whether the user has any pre-existing medical conditions.</t>
+  </si>
+  <si>
+    <t>number_of_dependents</t>
+  </si>
+  <si>
+    <t>The number of people financially dependent on the user.</t>
+  </si>
+  <si>
+    <t>current_health_expenditure</t>
+  </si>
+  <si>
+    <t>The amount the user spends on health per month/year.</t>
+  </si>
+  <si>
+    <t>The number of hospital visits in a given period.</t>
+  </si>
+  <si>
+    <t>Whether the user smokes (Yes/No).</t>
+  </si>
+  <si>
+    <t>The user’s level of alcohol consumption (e.g., None, Occasional, Frequent).</t>
+  </si>
+  <si>
+    <t>Whether the user is currently taking any prescribed medications.</t>
+  </si>
+  <si>
+    <t>Whether the user has a disability.</t>
+  </si>
+  <si>
+    <t>hospital_preference</t>
+  </si>
+  <si>
+    <t>The user’s preferred hospital or healthcare provider.</t>
+  </si>
+  <si>
+    <t>previous_insurance_coverage</t>
+  </si>
+  <si>
+    <t>Whether the user had health insurance before.</t>
+  </si>
+  <si>
+    <t>preferred_coverage_type</t>
+  </si>
+  <si>
+    <t>The type of health insurance the user prefers (e.g., Comprehensive, Basic).</t>
+  </si>
+  <si>
+    <t>insurance_provider</t>
+  </si>
+  <si>
+    <t>The insurance company that provides the user's policy.</t>
+  </si>
+  <si>
+    <t>The cost of the user’s current health insurance plan.</t>
+  </si>
+  <si>
+    <t>The amount the user must pay before the insurance kicks in.</t>
+  </si>
+  <si>
+    <t>The maximum amount a user has to pay for medical expenses in a year.</t>
+  </si>
+  <si>
+    <t>medication_coverage</t>
+  </si>
+  <si>
+    <t>Whether the insurance plan covers medication costs.</t>
+  </si>
+  <si>
+    <t>maternity_coverage</t>
+  </si>
+  <si>
+    <t>Whether maternity expenses are covered by the insurance plan.</t>
+  </si>
+  <si>
+    <t>chronic_illness_coverage</t>
+  </si>
+  <si>
+    <t>Whether the plan covers chronic diseases like diabetes, hypertension.</t>
+  </si>
+  <si>
+    <t>emergency_coverage</t>
+  </si>
+  <si>
+    <t>Whether emergency medical expenses are covered.</t>
+  </si>
+  <si>
+    <t>dental_coverage</t>
+  </si>
+  <si>
+    <t>Whether the insurance plan covers dental procedures.</t>
+  </si>
+  <si>
+    <t>vision_coverage</t>
+  </si>
+  <si>
+    <t>Whether the plan covers vision-related costs (glasses, eye exams).</t>
+  </si>
+  <si>
+    <t>The maximum amount the insurance provider will pay over the policyholder’s lifetime.</t>
+  </si>
+  <si>
+    <t>Whether the user prefers a co-payment model (sharing costs with the insurer).</t>
+  </si>
+  <si>
+    <t>preferred_hospital</t>
+  </si>
+  <si>
+    <t>The specific hospital the user prefers to visit.</t>
+  </si>
+  <si>
+    <t>user_satisfaction_rating</t>
+  </si>
+  <si>
+    <t>How satisfied the user is with their insurance plan (e.g., 1-5 scale).</t>
+  </si>
+  <si>
+    <t>recommended_plan</t>
+  </si>
+  <si>
+    <t>The insurance plan recommended to the user based on their profile.</t>
+  </si>
+  <si>
+    <t>policy_expiry_date</t>
+  </si>
+  <si>
+    <t>The expiration date of the current insurance policy.</t>
+  </si>
+  <si>
+    <t>duplicate_plan_cost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Duplicate column of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plan_cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, likely due to a data entry issue.</t>
+    </r>
+  </si>
+  <si>
+    <t>duplicate_country</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Duplicate column of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, possibly a redundancy in data.</t>
+    </r>
+  </si>
+  <si>
+    <t>waiting_period_months</t>
+  </si>
+  <si>
+    <t>The number of months the user has to wait before coverage starts.</t>
+  </si>
+  <si>
+    <t>The speed at which insurance claims are reimbursed (e.g., Fast, Medium, Slow).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +339,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +381,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,19 +696,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="95.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,188 +716,340 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.8" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
